--- a/templates/guias.xlsx
+++ b/templates/guias.xlsx
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100006385</v>
+        <v>100006386</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>

--- a/templates/guias.xlsx
+++ b/templates/guias.xlsx
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100006386</v>
+        <v>100006388</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100000004</v>
+        <v>100000005</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
